--- a/1.LabOOP/Excell tests/Lab1_2-Test-BlackBox.xlsx
+++ b/1.LabOOP/Excell tests/Lab1_2-Test-BlackBox.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
   <si>
     <t>№</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>X1; Y1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X1 = 5 Y = -3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X1 = -2 Y = -2</t>
   </si>
 </sst>
 </file>
@@ -147,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -155,27 +161,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,348 +574,564 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="57.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="3" customWidth="1"/>
-    <col min="2" max="4" width="24" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="18.28515625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="4" width="24" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7"/>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="6">
         <v>1</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="6">
         <v>2</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="6">
         <v>3</v>
       </c>
-      <c r="J1" s="1">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1">
+      <c r="J1" s="6">
+        <v>4</v>
+      </c>
+      <c r="K1" s="6">
         <v>5</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="6">
         <v>6</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="6">
         <v>7</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="6">
         <v>8</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="6">
         <v>9</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="6">
         <v>10</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="6">
         <v>11</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="S1" s="6">
+        <v>13</v>
+      </c>
+      <c r="T1" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="13"/>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="G3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="13"/>
+    </row>
+    <row r="4" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="13"/>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="11"/>
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="D8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="13"/>
+    </row>
+    <row r="9" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="D9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="13"/>
+    </row>
+    <row r="10" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="D10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="D11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="13"/>
+    </row>
+    <row r="12" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="D12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="13"/>
+    </row>
+    <row r="13" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="13"/>
+    </row>
+    <row r="14" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="13"/>
+    </row>
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="6"/>
+      <c r="D15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
